--- a/settings/setting.xlsx
+++ b/settings/setting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo-mo-\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mo-mo-\program\adjust-scan-images\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445400B1-3346-43AA-A15E-478B830997A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DC814-219B-4D35-B4BA-0319FFA4FD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>DO NOT CHANGE THE SETTING_KEY. YOU CAN CHANGE THE VALUES ONLY.</t>
   </si>
@@ -80,9 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>THIS IS THE MARKSHEET SETTING. JAPANESE ARE NOT RECOMMENDED.</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -102,6 +99,22 @@
   </si>
   <si>
     <t>student_number_1</t>
+  </si>
+  <si>
+    <t>THIS IS THE MARKSHEET SETTING. JAPANESE ARE ALSO OK.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>student_number_10</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -468,7 +481,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -510,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -534,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -550,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B8280-DB9F-4314-813D-34DC935340CA}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -576,330 +589,636 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>4018</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>4018</v>
       </c>
       <c r="D4">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>4018</v>
       </c>
       <c r="D5">
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>4018</v>
       </c>
       <c r="D6">
-        <v>230</v>
+        <v>424</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>4018</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>472</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>4018</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>517</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>4018</v>
       </c>
       <c r="D9">
-        <v>210</v>
+        <v>566</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>4018</v>
       </c>
       <c r="D10">
-        <v>220</v>
+        <v>613</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>4018</v>
       </c>
       <c r="D11">
-        <v>200</v>
+        <v>660</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>120</v>
+        <v>4018</v>
       </c>
       <c r="D12">
-        <v>210</v>
+        <v>704</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>120</v>
+        <v>4078</v>
       </c>
       <c r="D13">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>120</v>
+        <v>4078</v>
       </c>
       <c r="D14">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>120</v>
+        <v>4078</v>
       </c>
       <c r="D15">
-        <v>240</v>
+        <v>373</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>120</v>
+        <v>4078</v>
       </c>
       <c r="D16">
-        <v>250</v>
+        <v>424</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>120</v>
+        <v>4078</v>
       </c>
       <c r="D17">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>4078</v>
       </c>
       <c r="D18">
-        <v>270</v>
+        <v>517</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>120</v>
+        <v>4078</v>
       </c>
       <c r="D19">
-        <v>280</v>
+        <v>566</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>4078</v>
+      </c>
+      <c r="D20">
+        <v>613</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>4078</v>
+      </c>
+      <c r="D21">
+        <v>660</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>4078</v>
+      </c>
+      <c r="D22">
+        <v>704</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>120</v>
-      </c>
-      <c r="D20">
-        <v>290</v>
-      </c>
-      <c r="E20">
+      <c r="C23">
+        <v>4115</v>
+      </c>
+      <c r="D23">
+        <v>286</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4115</v>
+      </c>
+      <c r="D24">
+        <v>333</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4115</v>
+      </c>
+      <c r="D25">
+        <v>373</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
         <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4115</v>
+      </c>
+      <c r="D26">
+        <v>424</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4115</v>
+      </c>
+      <c r="D27">
+        <v>472</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4115</v>
+      </c>
+      <c r="D28">
+        <v>517</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4151</v>
+      </c>
+      <c r="D29">
+        <v>286</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4151</v>
+      </c>
+      <c r="D30">
+        <v>333</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>4151</v>
+      </c>
+      <c r="D31">
+        <v>373</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>4151</v>
+      </c>
+      <c r="D32">
+        <v>424</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4151</v>
+      </c>
+      <c r="D33">
+        <v>472</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>4151</v>
+      </c>
+      <c r="D34">
+        <v>517</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>4151</v>
+      </c>
+      <c r="D35">
+        <v>566</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>4151</v>
+      </c>
+      <c r="D36">
+        <v>613</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>4151</v>
+      </c>
+      <c r="D37">
+        <v>660</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>4151</v>
+      </c>
+      <c r="D38">
+        <v>704</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/settings/setting.xlsx
+++ b/settings/setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mo-mo-\program\adjust-scan-images\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DC814-219B-4D35-B4BA-0319FFA4FD46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8829B446-8ECC-4F18-9B63-CFD69737B6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="1" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
   </bookViews>
   <sheets>
     <sheet name="image_setting" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>DO NOT CHANGE THE SETTING_KEY. YOU CAN CHANGE THE VALUES ONLY.</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>student_number_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1F西</t>
+    <rPh sb="2" eb="3">
+      <t>ニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3F選</t>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1F東</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -480,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21C06B5-C7E1-48D9-8B48-0B199CD3A9CA}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -576,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B8280-DB9F-4314-813D-34DC935340CA}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -732,8 +750,8 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="C10">
         <v>4018</v>
@@ -749,8 +767,8 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11">
         <v>4018</v>
@@ -766,8 +784,8 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
         <v>4018</v>

--- a/settings/setting.xlsx
+++ b/settings/setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mo-mo-\program\adjust-scan-images\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8829B446-8ECC-4F18-9B63-CFD69737B6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC6BA9-236D-4E2D-8EF1-212554CFFF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="1" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="10510" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
   </bookViews>
   <sheets>
     <sheet name="image_setting" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21C06B5-C7E1-48D9-8B48-0B199CD3A9CA}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B8280-DB9F-4314-813D-34DC935340CA}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/settings/setting.xlsx
+++ b/settings/setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mo-mo-\program\adjust-scan-images\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AC6BA9-236D-4E2D-8EF1-212554CFFF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE586921-C70B-4F93-BC7B-5DB196C8F430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="10510" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
+    <workbookView xWindow="6190" yWindow="2310" windowWidth="19200" windowHeight="10510" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
   </bookViews>
   <sheets>
     <sheet name="image_setting" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>is_markread</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sheet_gaussian_ksize</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>1F東</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_marksheet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -514,10 +514,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -538,7 +538,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -607,29 +607,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>4018</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>4018</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>4018</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>9</v>

--- a/settings/setting.xlsx
+++ b/settings/setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mo-mo-\program\adjust-scan-images\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE586921-C70B-4F93-BC7B-5DB196C8F430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E5744-80C5-4D1C-957D-07F6008367C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="2310" windowWidth="19200" windowHeight="10510" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
+    <workbookView xWindow="6190" yWindow="2310" windowWidth="19200" windowHeight="10510" activeTab="1" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
   </bookViews>
   <sheets>
     <sheet name="image_setting" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,6 @@
     <t>student_number_1</t>
   </si>
   <si>
-    <t>THIS IS THE MARKSHEET SETTING. JAPANESE ARE ALSO OK.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>room</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>is_marksheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THIS IS THE MARKSHEET SETTING. JAPANESE IS ALSO OK.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21C06B5-C7E1-48D9-8B48-0B199CD3A9CA}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +562,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -594,9 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B8280-DB9F-4314-813D-34DC935340CA}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -607,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -629,7 +627,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -646,7 +644,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -663,7 +661,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -680,7 +678,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -697,7 +695,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -714,7 +712,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -731,7 +729,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -748,10 +746,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>4018</v>
@@ -765,10 +763,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>4018</v>
@@ -782,10 +780,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>4018</v>
@@ -935,7 +933,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>9</v>
@@ -1003,7 +1001,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1020,7 +1018,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1037,7 +1035,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>4</v>

--- a/settings/setting.xlsx
+++ b/settings/setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\mo-mo-\program\adjust-scan-images\settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo-mo-\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E5744-80C5-4D1C-957D-07F6008367C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C40623-6E34-437C-AE95-EE1E828677CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="2310" windowWidth="19200" windowHeight="10510" activeTab="1" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{26A99917-6A02-48CA-8C8A-0075422322A3}"/>
   </bookViews>
   <sheets>
     <sheet name="image_setting" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>DO NOT CHANGE THE SETTING_KEY. YOU CAN CHANGE THE VALUES ONLY.</t>
   </si>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>THIS IS THE MARKSHEET SETTING. JAPANESE IS ALSO OK.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coord_unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>px</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21C06B5-C7E1-48D9-8B48-0B199CD3A9CA}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -530,57 +538,65 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>3</v>
       </c>
     </row>
@@ -594,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B8280-DB9F-4314-813D-34DC935340CA}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
